--- a/input.xlsx
+++ b/input.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$A$173</definedName>

--- a/input.xlsx
+++ b/input.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
